--- a/BackTest/2020-01-12 BackTest LINK.xlsx
+++ b/BackTest/2020-01-12 BackTest LINK.xlsx
@@ -731,13 +731,17 @@
         <v>2518.283333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>2500</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2500</v>
+      </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
@@ -766,14 +770,22 @@
         <v>2518.05</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>2507</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -801,14 +813,22 @@
         <v>2517.7</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -836,14 +856,22 @@
         <v>2517.333333333333</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>2503</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -871,14 +899,22 @@
         <v>2516.983333333333</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>2498</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,14 +942,22 @@
         <v>2516.7</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>2498</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -950,9 +994,13 @@
         <v>2498</v>
       </c>
       <c r="K16" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L16" t="inlineStr"/>
+        <v>2500</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -989,11 +1037,11 @@
         <v>2498</v>
       </c>
       <c r="K17" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M17" t="n">
@@ -1023,20 +1071,18 @@
         <v>2516.2</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>2498</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M18" t="n">
@@ -1066,18 +1112,20 @@
         <v>2516.066666666667</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>2498</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L19" t="inlineStr"/>
+        <v>2500</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1105,20 +1153,18 @@
         <v>2515.6</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>2497</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M20" t="n">
@@ -1148,20 +1194,18 @@
         <v>2515.233333333333</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>2497</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M21" t="n">
@@ -1191,16 +1235,14 @@
         <v>2514.65</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>2496</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1234,16 +1276,14 @@
         <v>2514.033333333333</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>2495</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1277,16 +1317,14 @@
         <v>2513.45</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>2496</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1320,16 +1358,14 @@
         <v>2512.916666666667</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>2496</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1363,16 +1399,14 @@
         <v>2512.416666666667</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>2509</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1406,16 +1440,14 @@
         <v>2511.916666666667</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>2507</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1449,16 +1481,14 @@
         <v>2511.35</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>2508</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1492,16 +1522,14 @@
         <v>2510.766666666667</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>2506</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1535,16 +1563,14 @@
         <v>2510.3</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>2505</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1578,16 +1604,14 @@
         <v>2509.783333333333</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>2504</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1621,16 +1645,14 @@
         <v>2509.316666666667</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>2503</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1664,16 +1686,14 @@
         <v>2508.7</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>2502</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1707,16 +1727,14 @@
         <v>2508.083333333333</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>2493</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1750,16 +1768,14 @@
         <v>2507.55</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
         <v>2500</v>
-      </c>
-      <c r="K35" t="n">
-        <v>2498</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1793,16 +1809,14 @@
         <v>2507.216666666667</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
         <v>2500</v>
-      </c>
-      <c r="K36" t="n">
-        <v>2498</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1836,16 +1850,14 @@
         <v>2506.75</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>2498</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1879,16 +1891,14 @@
         <v>2506.433333333333</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>2499</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1922,16 +1932,14 @@
         <v>2506.05</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>2496</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -1965,16 +1973,14 @@
         <v>2505.8</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>2501</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2008,16 +2014,14 @@
         <v>2505.45</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>2501</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2051,16 +2055,14 @@
         <v>2505.033333333333</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>2495</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2094,16 +2096,14 @@
         <v>2504.55</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>2494</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2137,16 +2137,14 @@
         <v>2504.066666666667</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>2495</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2180,16 +2178,14 @@
         <v>2503.916666666667</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>2504</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2223,16 +2219,14 @@
         <v>2503.766666666667</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>2504</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2266,16 +2260,14 @@
         <v>2503.683333333333</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>2506</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2309,16 +2301,14 @@
         <v>2503.583333333333</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>2506</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2352,16 +2342,14 @@
         <v>2503.583333333333</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>2504</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2395,16 +2383,14 @@
         <v>2503.4</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
         <v>2500</v>
-      </c>
-      <c r="K50" t="n">
-        <v>2498</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2438,16 +2424,14 @@
         <v>2503.216666666667</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
         <v>2500</v>
-      </c>
-      <c r="K51" t="n">
-        <v>2498</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2481,16 +2465,14 @@
         <v>2502.983333333333</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>2501</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2524,16 +2506,14 @@
         <v>2502.666666666667</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
         <v>2500</v>
-      </c>
-      <c r="K53" t="n">
-        <v>2498</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2567,16 +2547,14 @@
         <v>2502.333333333333</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>2502</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2610,16 +2588,14 @@
         <v>2502.1</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>2501</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2653,16 +2629,14 @@
         <v>2501.866666666667</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>2501</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2696,16 +2670,14 @@
         <v>2501.65</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>2502</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2739,16 +2711,14 @@
         <v>2501.4</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>2503</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2782,16 +2752,14 @@
         <v>2501.483333333333</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>2516</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2825,16 +2793,14 @@
         <v>2501.6</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>2517</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2868,16 +2834,14 @@
         <v>2501.7</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>2524</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2918,7 +2882,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2959,7 +2923,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -3000,7 +2964,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -3041,7 +3005,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3082,7 +3046,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3123,7 +3087,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3164,7 +3128,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3205,7 +3169,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3246,7 +3210,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3287,7 +3251,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3328,7 +3292,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3362,16 +3326,14 @@
         <v>2502.483333333333</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>2498</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3405,16 +3367,14 @@
         <v>2502.516666666667</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>2498</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3448,16 +3408,14 @@
         <v>2502.55</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
         <v>2500</v>
-      </c>
-      <c r="K75" t="n">
-        <v>2498</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3491,16 +3449,14 @@
         <v>2502.616666666667</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>2502</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3534,16 +3490,14 @@
         <v>2502.966666666667</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>2514</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3577,16 +3531,14 @@
         <v>2503.4</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>2515</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3620,16 +3572,14 @@
         <v>2503.75</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>2524</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3670,7 +3620,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3711,7 +3661,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3752,7 +3702,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3793,7 +3743,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3834,7 +3784,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3875,7 +3825,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3916,7 +3866,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3957,7 +3907,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3998,7 +3948,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -4039,7 +3989,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -4080,7 +4030,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -4121,7 +4071,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4162,7 +4112,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4203,7 +4153,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4244,7 +4194,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4285,7 +4235,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4326,7 +4276,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4367,7 +4317,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4408,7 +4358,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4449,7 +4399,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4490,7 +4440,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4531,7 +4481,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4572,7 +4522,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4613,7 +4563,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4654,7 +4604,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4695,7 +4645,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4736,7 +4686,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4777,7 +4727,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4818,7 +4768,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4859,7 +4809,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4896,19 +4846,19 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>1</v>
+        <v>1.0374</v>
       </c>
     </row>
     <row r="111">
@@ -4937,17 +4887,11 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4978,17 +4922,11 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -5019,17 +4957,11 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -5060,17 +4992,11 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5104,14 +5030,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5145,14 +5065,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5186,14 +5100,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5227,14 +5135,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5268,14 +5170,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5309,14 +5205,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5350,14 +5240,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5391,14 +5275,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5432,14 +5310,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5473,14 +5345,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5514,14 +5380,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5555,14 +5415,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5596,14 +5450,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5637,14 +5485,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5678,14 +5520,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5719,14 +5555,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5760,14 +5590,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5801,14 +5625,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5842,14 +5660,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5883,14 +5695,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5924,14 +5730,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5965,14 +5765,8 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -6006,14 +5800,8 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -6047,14 +5835,8 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -6088,14 +5870,8 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -6129,14 +5905,8 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -6170,14 +5940,8 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6211,14 +5975,8 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6252,14 +6010,8 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6293,14 +6045,8 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6334,14 +6080,8 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6375,14 +6115,8 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6416,14 +6150,8 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6457,14 +6185,8 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6498,14 +6220,8 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6539,14 +6255,8 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6580,14 +6290,8 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6621,14 +6325,8 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6662,14 +6360,8 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6703,14 +6395,8 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6744,14 +6430,8 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6785,14 +6465,8 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6826,14 +6500,8 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6867,14 +6535,8 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6908,14 +6570,8 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6949,14 +6605,8 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6990,14 +6640,8 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -7031,14 +6675,8 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -7072,14 +6710,8 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -7113,14 +6745,8 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -7154,14 +6780,8 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -7195,14 +6815,8 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -7236,14 +6850,8 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -7277,14 +6885,8 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -7318,14 +6920,8 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7359,14 +6955,8 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7400,14 +6990,8 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7441,14 +7025,8 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7482,14 +7060,8 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7523,14 +7095,8 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7564,14 +7130,8 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7605,14 +7165,8 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7646,14 +7200,8 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7687,14 +7235,8 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7728,14 +7270,8 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7769,14 +7305,8 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7810,14 +7340,8 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7851,14 +7375,8 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7892,14 +7410,8 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7933,14 +7445,8 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7974,14 +7480,8 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -8015,14 +7515,8 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -8056,14 +7550,8 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -8097,14 +7585,8 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -8138,14 +7620,8 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -8179,14 +7655,8 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -8220,14 +7690,8 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -8261,14 +7725,8 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -8302,14 +7760,8 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -8343,14 +7795,8 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -8384,14 +7830,8 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -8425,14 +7865,8 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8466,14 +7900,8 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8507,14 +7935,8 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8548,14 +7970,8 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8589,14 +8005,8 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8630,14 +8040,8 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8671,14 +8075,8 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8712,14 +8110,8 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8753,14 +8145,8 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8794,14 +8180,8 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8835,14 +8215,8 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8876,14 +8250,8 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8917,14 +8285,8 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8958,14 +8320,8 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8999,14 +8355,8 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -9040,14 +8390,8 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -9081,14 +8425,8 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -9122,14 +8460,8 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -9163,14 +8495,8 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -9204,14 +8530,8 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -9245,14 +8565,8 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -9286,14 +8600,8 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -9327,14 +8635,8 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -9368,14 +8670,8 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -9409,14 +8705,8 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -9450,14 +8740,8 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -9491,14 +8775,8 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -9532,14 +8810,8 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -9573,14 +8845,8 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -9614,14 +8880,8 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -9655,14 +8915,8 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -9696,14 +8950,8 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9737,14 +8985,8 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9778,14 +9020,8 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9819,14 +9055,8 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9860,14 +9090,8 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9901,14 +9125,8 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9942,14 +9160,8 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9983,14 +9195,8 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -10024,14 +9230,8 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -10065,14 +9265,8 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -10106,14 +9300,8 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -10147,14 +9335,8 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -10188,14 +9370,8 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -10229,14 +9405,8 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -10270,14 +9440,8 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -10311,14 +9475,8 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -10352,14 +9510,8 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -10393,14 +9545,8 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -10434,14 +9580,8 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -10475,14 +9615,8 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -10516,14 +9650,8 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -10557,14 +9685,8 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -10598,14 +9720,8 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -10639,14 +9755,8 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -10680,14 +9790,8 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -10721,14 +9825,8 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -10762,14 +9860,8 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -10803,14 +9895,8 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -10844,14 +9930,8 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -10885,14 +9965,8 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -10926,14 +10000,8 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -10967,14 +10035,8 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -11008,14 +10070,8 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -11049,14 +10105,8 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -11090,14 +10140,8 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -11131,14 +10175,8 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -11172,14 +10210,8 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -11213,14 +10245,8 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -11254,14 +10280,8 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -11295,14 +10315,8 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -11336,14 +10350,8 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -11377,14 +10385,8 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -11418,14 +10420,8 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -11459,14 +10455,8 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -11500,14 +10490,8 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -11541,14 +10525,8 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -11582,14 +10560,8 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -11623,14 +10595,8 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -11664,14 +10630,8 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -11705,14 +10665,8 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -11746,14 +10700,8 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -11787,14 +10735,8 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -11828,14 +10770,8 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -11869,14 +10805,8 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -11910,14 +10840,8 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -11951,14 +10875,8 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -11992,14 +10910,8 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -12033,14 +10945,8 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="inlineStr"/>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -12074,14 +10980,8 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr"/>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -12115,14 +11015,8 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="inlineStr"/>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -12156,14 +11050,8 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="inlineStr"/>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -12197,14 +11085,8 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="inlineStr"/>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -12238,14 +11120,8 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="inlineStr"/>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -12279,14 +11155,8 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="inlineStr"/>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -12320,14 +11190,8 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="inlineStr"/>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -12361,14 +11225,8 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="inlineStr"/>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -12402,14 +11260,8 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="inlineStr"/>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -12443,14 +11295,8 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="inlineStr"/>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -12484,14 +11330,8 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="inlineStr"/>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -12525,14 +11365,8 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -12566,14 +11400,8 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="inlineStr"/>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -12607,14 +11435,8 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="inlineStr"/>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -12648,14 +11470,8 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="inlineStr"/>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -12689,14 +11505,8 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="inlineStr"/>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -12730,14 +11540,8 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="inlineStr"/>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -12771,14 +11575,8 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="inlineStr"/>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -12812,14 +11610,8 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="inlineStr"/>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -12853,14 +11645,8 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="inlineStr"/>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -12894,14 +11680,8 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="inlineStr"/>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -12935,14 +11715,8 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="inlineStr"/>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -12976,14 +11750,8 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="inlineStr"/>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -13017,14 +11785,8 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="inlineStr"/>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -13058,14 +11820,8 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="inlineStr"/>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -13099,14 +11855,8 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="inlineStr"/>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -13140,14 +11890,8 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="inlineStr"/>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -13181,14 +11925,8 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="inlineStr"/>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -13222,14 +11960,8 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="inlineStr"/>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -13263,14 +11995,8 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="inlineStr"/>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -13304,14 +12030,8 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="inlineStr"/>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -13345,14 +12065,8 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="inlineStr"/>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -13386,14 +12100,8 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="inlineStr"/>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -13427,14 +12135,8 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="inlineStr"/>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -13468,14 +12170,8 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="inlineStr"/>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -13509,14 +12205,8 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="inlineStr"/>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -13550,14 +12240,8 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
+      <c r="L321" t="inlineStr"/>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -13591,14 +12275,8 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
+      <c r="L322" t="inlineStr"/>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -13632,14 +12310,8 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="inlineStr"/>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -13673,14 +12345,8 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
+      <c r="L324" t="inlineStr"/>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -13714,14 +12380,8 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="inlineStr"/>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -13755,14 +12415,8 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
+      <c r="L326" t="inlineStr"/>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -13796,14 +12450,8 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
+      <c r="L327" t="inlineStr"/>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -13837,14 +12485,8 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
+      <c r="L328" t="inlineStr"/>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -13878,14 +12520,8 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="inlineStr"/>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -13919,14 +12555,8 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
+      <c r="L330" t="inlineStr"/>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -13960,14 +12590,8 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
+      <c r="L331" t="inlineStr"/>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -14001,14 +12625,8 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
+      <c r="L332" t="inlineStr"/>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -14042,14 +12660,8 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
+      <c r="L333" t="inlineStr"/>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -14083,14 +12695,8 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
+      <c r="L334" t="inlineStr"/>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -14124,14 +12730,8 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
+      <c r="L335" t="inlineStr"/>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -14165,14 +12765,8 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
+      <c r="L336" t="inlineStr"/>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -14206,14 +12800,8 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
+      <c r="L337" t="inlineStr"/>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -14247,14 +12835,8 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
+      <c r="L338" t="inlineStr"/>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -14288,14 +12870,8 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
+      <c r="L339" t="inlineStr"/>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -14329,14 +12905,8 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="inlineStr"/>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -14370,14 +12940,8 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
+      <c r="L341" t="inlineStr"/>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -14411,14 +12975,8 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
+      <c r="L342" t="inlineStr"/>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -14452,14 +13010,8 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
+      <c r="L343" t="inlineStr"/>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -14493,14 +13045,8 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
+      <c r="L344" t="inlineStr"/>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -14534,14 +13080,8 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
+      <c r="L345" t="inlineStr"/>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -14575,14 +13115,8 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
+      <c r="L346" t="inlineStr"/>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -14616,14 +13150,8 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
+      <c r="L347" t="inlineStr"/>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -14657,14 +13185,8 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
+      <c r="L348" t="inlineStr"/>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -14698,14 +13220,8 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
+      <c r="L349" t="inlineStr"/>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -14739,14 +13255,8 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
+      <c r="L350" t="inlineStr"/>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -14780,14 +13290,8 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
+      <c r="L351" t="inlineStr"/>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -14821,14 +13325,8 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
+      <c r="L352" t="inlineStr"/>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -14862,14 +13360,8 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
+      <c r="L353" t="inlineStr"/>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -14903,14 +13395,8 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
+      <c r="L354" t="inlineStr"/>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -14944,14 +13430,8 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
+      <c r="L355" t="inlineStr"/>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -14985,14 +13465,8 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
+      <c r="L356" t="inlineStr"/>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -15026,14 +13500,8 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
+      <c r="L357" t="inlineStr"/>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -15067,14 +13535,8 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
+      <c r="L358" t="inlineStr"/>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -15108,14 +13570,8 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
+      <c r="L359" t="inlineStr"/>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -15149,14 +13605,8 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
+      <c r="L360" t="inlineStr"/>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -15190,14 +13640,8 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
+      <c r="L361" t="inlineStr"/>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -15231,14 +13675,8 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
+      <c r="L362" t="inlineStr"/>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -15272,14 +13710,8 @@
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
+      <c r="L363" t="inlineStr"/>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -15313,14 +13745,8 @@
         <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
+      <c r="L364" t="inlineStr"/>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -15354,14 +13780,8 @@
         <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
+      <c r="L365" t="inlineStr"/>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -15395,14 +13815,8 @@
         <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
+      <c r="L366" t="inlineStr"/>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -15436,14 +13850,8 @@
         <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
+      <c r="L367" t="inlineStr"/>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -15477,14 +13885,8 @@
         <v>0</v>
       </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
+      <c r="L368" t="inlineStr"/>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -15518,14 +13920,8 @@
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
+      <c r="L369" t="inlineStr"/>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -15559,14 +13955,8 @@
         <v>0</v>
       </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
+      <c r="L370" t="inlineStr"/>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -15600,14 +13990,8 @@
         <v>0</v>
       </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
+      <c r="L371" t="inlineStr"/>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -15641,14 +14025,8 @@
         <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
+      <c r="L372" t="inlineStr"/>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -15682,14 +14060,8 @@
         <v>0</v>
       </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
+      <c r="L373" t="inlineStr"/>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -15723,14 +14095,8 @@
         <v>0</v>
       </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
+      <c r="L374" t="inlineStr"/>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -15764,14 +14130,8 @@
         <v>0</v>
       </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
+      <c r="L375" t="inlineStr"/>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -15805,14 +14165,8 @@
         <v>0</v>
       </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
+      <c r="L376" t="inlineStr"/>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -15843,19 +14197,13 @@
         <v>0</v>
       </c>
       <c r="I377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="n">
-        <v>2498</v>
-      </c>
-      <c r="L377" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
+      <c r="L377" t="inlineStr"/>
       <c r="M377" t="n">
-        <v>1.028626901521217</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
@@ -15884,7 +14232,7 @@
         <v>0</v>
       </c>
       <c r="I378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
@@ -15919,7 +14267,7 @@
         <v>0</v>
       </c>
       <c r="I379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
@@ -15954,7 +14302,7 @@
         <v>0</v>
       </c>
       <c r="I380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>

--- a/BackTest/2020-01-12 BackTest LINK.xlsx
+++ b/BackTest/2020-01-12 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3124,14 +3124,10 @@
         <v>7932.656400770606</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="n">
-        <v>2492</v>
-      </c>
-      <c r="J83" t="n">
-        <v>2492</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
@@ -3161,19 +3157,11 @@
         <v>8169.769200770605</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2496</v>
-      </c>
-      <c r="J84" t="n">
-        <v>2492</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3205,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>2492</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3241,14 +3223,10 @@
         <v>8101.769200770605</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="n">
-        <v>2509</v>
-      </c>
-      <c r="J86" t="n">
-        <v>2509</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
@@ -3278,19 +3256,11 @@
         <v>8101.769200770605</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="n">
-        <v>2507</v>
-      </c>
-      <c r="J87" t="n">
-        <v>2509</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3322,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>2509</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3361,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>2509</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3397,19 +3355,11 @@
         <v>7959.351900770605</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="n">
-        <v>2504</v>
-      </c>
-      <c r="J90" t="n">
-        <v>2509</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3438,19 +3388,11 @@
         <v>7959.351900770605</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" t="n">
-        <v>2503</v>
-      </c>
-      <c r="J91" t="n">
-        <v>2509</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3479,19 +3421,11 @@
         <v>7841.002900770605</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" t="n">
-        <v>2503</v>
-      </c>
-      <c r="J92" t="n">
-        <v>2509</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3520,19 +3454,11 @@
         <v>8171.398302692142</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I93" t="n">
-        <v>2494</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2509</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3561,19 +3487,11 @@
         <v>8157.398302692142</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2498</v>
-      </c>
-      <c r="J94" t="n">
-        <v>2509</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3602,19 +3520,15 @@
         <v>8158.398302692142</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>2493</v>
       </c>
       <c r="J95" t="n">
-        <v>2509</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2493</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3647,11 +3561,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>2509</v>
+        <v>2493</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L96" t="n">
@@ -3682,15 +3596,17 @@
         <v>8667.680902692142</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>2498</v>
+      </c>
       <c r="J97" t="n">
-        <v>2509</v>
+        <v>2493</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L97" t="n">
@@ -3721,17 +3637,15 @@
         <v>8467.680902692142</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>2500</v>
+      </c>
       <c r="J98" t="n">
-        <v>2509</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2500</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3760,15 +3674,17 @@
         <v>8619.065102692142</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2496</v>
+      </c>
       <c r="J99" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L99" t="n">
@@ -3799,17 +3715,17 @@
         <v>8529.165102692143</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>2501</v>
       </c>
       <c r="J100" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L100" t="n">
@@ -3840,13 +3756,13 @@
         <v>6764.803302692143</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>2495</v>
       </c>
       <c r="J101" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -3881,13 +3797,13 @@
         <v>7864.803302692143</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>2491</v>
       </c>
       <c r="J102" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -3922,13 +3838,13 @@
         <v>7864.803302692143</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>2494</v>
       </c>
       <c r="J103" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -3963,11 +3879,13 @@
         <v>8041.173602692143</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>2494</v>
+      </c>
       <c r="J104" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4002,11 +3920,13 @@
         <v>8041.173602692143</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>2504</v>
+      </c>
       <c r="J105" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4041,11 +3961,13 @@
         <v>8041.173602692143</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>2504</v>
+      </c>
       <c r="J106" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4080,11 +4002,13 @@
         <v>8686.035102692142</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>2504</v>
+      </c>
       <c r="J107" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4119,11 +4043,13 @@
         <v>8351.050302692141</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>2505</v>
+      </c>
       <c r="J108" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4158,11 +4084,13 @@
         <v>8351.050302692141</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>2500</v>
+      </c>
       <c r="J109" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4197,11 +4125,13 @@
         <v>8351.050302692141</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>2500</v>
+      </c>
       <c r="J110" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4236,11 +4166,13 @@
         <v>8453.771002692141</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>2500</v>
+      </c>
       <c r="J111" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4275,11 +4207,13 @@
         <v>8453.771002692141</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>2501</v>
+      </c>
       <c r="J112" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4314,13 +4248,13 @@
         <v>8453.771002692141</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>2501</v>
       </c>
       <c r="J113" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4355,13 +4289,13 @@
         <v>8453.771002692141</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>2501</v>
       </c>
       <c r="J114" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4396,11 +4330,13 @@
         <v>8453.771002692141</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>2501</v>
+      </c>
       <c r="J115" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4435,13 +4371,13 @@
         <v>8458.771002692141</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>2501</v>
       </c>
       <c r="J116" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4476,11 +4412,13 @@
         <v>9455.498402692141</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>2502</v>
+      </c>
       <c r="J117" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4515,13 +4453,13 @@
         <v>15455.49840269214</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>2503</v>
       </c>
       <c r="J118" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4556,11 +4494,13 @@
         <v>15231.11590269214</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>2526</v>
+      </c>
       <c r="J119" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4595,13 +4535,13 @@
         <v>13404.14100269214</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>2525</v>
       </c>
       <c r="J120" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4636,13 +4576,13 @@
         <v>14189.14980269214</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>2517</v>
       </c>
       <c r="J121" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4677,13 +4617,13 @@
         <v>14189.14980269214</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>2524</v>
       </c>
       <c r="J122" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4718,11 +4658,13 @@
         <v>13679.13030269214</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>2524</v>
+      </c>
       <c r="J123" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4757,13 +4699,13 @@
         <v>13861.99160269214</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>2511</v>
       </c>
       <c r="J124" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4798,13 +4740,13 @@
         <v>14374.30150269214</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>2513</v>
       </c>
       <c r="J125" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4839,13 +4781,13 @@
         <v>14212.59850269214</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>2514</v>
       </c>
       <c r="J126" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -4880,13 +4822,13 @@
         <v>12952.71920269214</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>2507</v>
       </c>
       <c r="J127" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -4921,13 +4863,13 @@
         <v>6925.054688042461</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>2504</v>
       </c>
       <c r="J128" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -4962,13 +4904,13 @@
         <v>5094.988788042461</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>2503</v>
       </c>
       <c r="J129" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5003,13 +4945,13 @@
         <v>5094.988788042461</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>2500</v>
       </c>
       <c r="J130" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5044,13 +4986,13 @@
         <v>4854.629588042461</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>2500</v>
       </c>
       <c r="J131" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5085,13 +5027,13 @@
         <v>3597.412588042461</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>2498</v>
       </c>
       <c r="J132" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5126,13 +5068,13 @@
         <v>5064.756088042461</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>2492</v>
       </c>
       <c r="J133" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5167,13 +5109,13 @@
         <v>5064.756088042461</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>2500</v>
       </c>
       <c r="J134" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5208,13 +5150,13 @@
         <v>5264.756088042461</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>2500</v>
       </c>
       <c r="J135" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5249,13 +5191,13 @@
         <v>5431.424288042461</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>2502</v>
       </c>
       <c r="J136" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5290,13 +5232,13 @@
         <v>7061.420288042461</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>2519</v>
       </c>
       <c r="J137" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5331,13 +5273,13 @@
         <v>5436.420288042461</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>2524</v>
       </c>
       <c r="J138" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5372,13 +5314,13 @@
         <v>5811.604288042461</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>2519</v>
       </c>
       <c r="J139" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5413,13 +5355,13 @@
         <v>5316.555388042461</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>2527</v>
       </c>
       <c r="J140" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5454,13 +5396,11 @@
         <v>4829.365888042461</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I141" t="n">
-        <v>2524</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5499,7 +5439,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5534,13 +5474,11 @@
         <v>6717.606176773746</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="n">
-        <v>2529</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5579,7 +5517,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5618,7 +5556,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5657,7 +5595,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5696,7 +5634,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5735,7 +5673,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5774,7 +5712,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5813,7 +5751,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5852,7 +5790,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5891,7 +5829,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5930,7 +5868,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5969,7 +5907,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6008,7 +5946,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6047,7 +5985,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6086,7 +6024,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6125,7 +6063,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6164,7 +6102,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6203,7 +6141,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6242,7 +6180,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6281,7 +6219,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6320,7 +6258,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6359,7 +6297,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6398,7 +6336,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6437,7 +6375,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6476,7 +6414,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6515,7 +6453,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6554,7 +6492,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6593,7 +6531,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6632,7 +6570,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6671,7 +6609,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6710,7 +6648,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6749,7 +6687,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6788,7 +6726,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6827,7 +6765,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6866,7 +6804,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6905,7 +6843,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6944,7 +6882,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6983,7 +6921,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7022,7 +6960,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7061,7 +6999,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7096,19 +7034,19 @@
         <v>31507.87962643837</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L183" t="n">
-        <v>1</v>
+        <v>1.0402</v>
       </c>
       <c r="M183" t="inlineStr"/>
     </row>
@@ -7135,17 +7073,11 @@
         <v>31507.87962643837</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>2509</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7174,19 +7106,13 @@
         <v>29254.25442643837</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>2509</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
-        <v>1.035255081705859</v>
+        <v>1</v>
       </c>
       <c r="M185" t="inlineStr"/>
     </row>
@@ -7213,7 +7139,7 @@
         <v>29254.25442643837</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7246,7 +7172,7 @@
         <v>29254.25442643837</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7279,7 +7205,7 @@
         <v>24676.61032643837</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7312,7 +7238,7 @@
         <v>24083.71402643837</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7345,7 +7271,7 @@
         <v>24452.63442643837</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7378,7 +7304,7 @@
         <v>24113.89392643837</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7411,7 +7337,7 @@
         <v>22164.35572643837</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7444,7 +7370,7 @@
         <v>19702.24892643837</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7477,7 +7403,7 @@
         <v>20234.51882643837</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7510,7 +7436,7 @@
         <v>19150.57162643837</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7543,7 +7469,7 @@
         <v>19270.75122643837</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7576,7 +7502,7 @@
         <v>19324.96092643837</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -8071,7 +7997,7 @@
         <v>22282.25202643836</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8335,7 +8261,7 @@
         <v>16826.83692643836</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8368,7 +8294,7 @@
         <v>17375.69032643836</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8401,7 +8327,7 @@
         <v>15170.38532643836</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8434,7 +8360,7 @@
         <v>15170.38532643836</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8500,7 +8426,7 @@
         <v>11534.38622643836</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8533,7 +8459,7 @@
         <v>9947.796526438362</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8566,7 +8492,7 @@
         <v>10339.56452643836</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8599,7 +8525,7 @@
         <v>9047.531026438362</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8632,7 +8558,7 @@
         <v>9047.531026438362</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8665,7 +8591,7 @@
         <v>9296.329526438363</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8698,7 +8624,7 @@
         <v>9296.329526438363</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8731,7 +8657,7 @@
         <v>8904.968226438363</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8764,7 +8690,7 @@
         <v>8904.968226438363</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8797,7 +8723,7 @@
         <v>8905.304826438363</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8830,7 +8756,7 @@
         <v>8544.766026438363</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8863,7 +8789,7 @@
         <v>8566.766026438363</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8896,7 +8822,7 @@
         <v>7320.681426438363</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8929,7 +8855,7 @@
         <v>7320.681426438363</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8962,7 +8888,7 @@
         <v>9856.585826438362</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8995,7 +8921,7 @@
         <v>9750.464426438362</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9028,7 +8954,7 @@
         <v>9844.846226438362</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9061,7 +8987,7 @@
         <v>9782.705426438362</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9094,7 +9020,7 @@
         <v>11118.33392643836</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9259,7 +9185,7 @@
         <v>14881.80772643836</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9292,7 +9218,7 @@
         <v>14881.80772643836</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9325,7 +9251,7 @@
         <v>15979.08446509221</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9358,7 +9284,7 @@
         <v>15851.29866509221</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9391,7 +9317,7 @@
         <v>15731.11906509221</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9424,7 +9350,7 @@
         <v>15588.22436509221</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9457,7 +9383,7 @@
         <v>15745.71166509221</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9490,7 +9416,7 @@
         <v>15745.71166509221</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9523,7 +9449,7 @@
         <v>15745.71166509221</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9556,7 +9482,7 @@
         <v>15198.14296509221</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9589,7 +9515,7 @@
         <v>15198.14296509221</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9622,7 +9548,7 @@
         <v>15198.14296509221</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9655,7 +9581,7 @@
         <v>15395.17540709993</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9688,7 +9614,7 @@
         <v>15373.17540709993</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9721,7 +9647,7 @@
         <v>15372.17540709993</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9754,7 +9680,7 @@
         <v>15371.17540709993</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9787,7 +9713,7 @@
         <v>15031.36940709993</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9820,7 +9746,7 @@
         <v>16747.92930709993</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9853,7 +9779,7 @@
         <v>16741.26320709993</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9886,7 +9812,7 @@
         <v>16718.55000709993</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9919,7 +9845,7 @@
         <v>16718.55000709993</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9952,7 +9878,7 @@
         <v>16718.55000709993</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9985,7 +9911,7 @@
         <v>16718.55000709993</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10018,7 +9944,7 @@
         <v>16549.67020709993</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10051,7 +9977,7 @@
         <v>16549.67020709993</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10084,7 +10010,7 @@
         <v>17698.73800709994</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10117,7 +10043,7 @@
         <v>17637.83230709994</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10150,7 +10076,7 @@
         <v>17528.13880709993</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10183,7 +10109,7 @@
         <v>17157.08670709993</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10744,7 +10670,7 @@
         <v>17507.94077635761</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10777,7 +10703,7 @@
         <v>17388.40927635761</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10810,7 +10736,7 @@
         <v>16927.53907635761</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10843,7 +10769,7 @@
         <v>17384.22747635761</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10876,7 +10802,7 @@
         <v>17352.82667635761</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10909,7 +10835,7 @@
         <v>16566.97657635761</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10942,7 +10868,7 @@
         <v>16162.36977635761</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -12790,7 +12716,7 @@
         <v>-49163.56263869214</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12856,7 +12782,7 @@
         <v>-77573.79423869213</v>
       </c>
       <c r="H357" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -14341,10 +14267,14 @@
         <v>-77038.1652490018</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>2533</v>
+      </c>
+      <c r="J402" t="n">
+        <v>2533</v>
+      </c>
       <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
@@ -14377,8 +14307,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>2533</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14410,8 +14346,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>2533</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14572,10 +14514,14 @@
         <v>-76037.6533490018</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>2533</v>
+      </c>
+      <c r="J409" t="n">
+        <v>2533</v>
+      </c>
       <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
@@ -14605,11 +14551,19 @@
         <v>-75911.6533490018</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>2537</v>
+      </c>
+      <c r="J410" t="n">
+        <v>2533</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14638,11 +14592,19 @@
         <v>-75911.6533490018</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>2538</v>
+      </c>
+      <c r="J411" t="n">
+        <v>2533</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14671,10 +14633,14 @@
         <v>-75911.6533490018</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>2538</v>
+      </c>
+      <c r="J412" t="n">
+        <v>2538</v>
+      </c>
       <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
@@ -14704,11 +14670,19 @@
         <v>-76007.09734900181</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>2538</v>
+      </c>
+      <c r="J413" t="n">
+        <v>2538</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14737,11 +14711,19 @@
         <v>-76005.09734900181</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>2534</v>
+      </c>
+      <c r="J414" t="n">
+        <v>2538</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14770,10 +14752,14 @@
         <v>-76005.09734900181</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>2537</v>
+      </c>
+      <c r="J415" t="n">
+        <v>2537</v>
+      </c>
       <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
@@ -14803,11 +14789,19 @@
         <v>-76003.09734900181</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>2537</v>
+      </c>
+      <c r="J416" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14836,11 +14830,19 @@
         <v>-76002.09734900181</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>2541</v>
+      </c>
+      <c r="J417" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14869,11 +14871,19 @@
         <v>-76030.12344900181</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>2542</v>
+      </c>
+      <c r="J418" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14902,11 +14912,19 @@
         <v>-76031.12344900181</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>2540</v>
+      </c>
+      <c r="J419" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14935,11 +14953,19 @@
         <v>-76031.12344900181</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>2539</v>
+      </c>
+      <c r="J420" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14968,11 +14994,19 @@
         <v>-76027.12344900181</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>2539</v>
+      </c>
+      <c r="J421" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15004,8 +15038,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15037,8 +15077,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15070,8 +15116,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15103,8 +15155,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15136,8 +15194,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15169,8 +15233,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15202,8 +15272,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15235,8 +15311,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15268,8 +15350,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15301,8 +15389,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15334,8 +15428,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15367,8 +15467,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15400,8 +15506,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15433,8 +15545,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15463,11 +15581,17 @@
         <v>-72582.82944900183</v>
       </c>
       <c r="H436" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15496,11 +15620,17 @@
         <v>-72547.37484900183</v>
       </c>
       <c r="H437" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15529,11 +15659,17 @@
         <v>-72664.92784900183</v>
       </c>
       <c r="H438" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15562,11 +15698,17 @@
         <v>-72664.92784900183</v>
       </c>
       <c r="H439" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15595,11 +15737,17 @@
         <v>-72663.92851765509</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15628,11 +15776,17 @@
         <v>-72681.92851765509</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15661,11 +15815,17 @@
         <v>-72681.92851765509</v>
       </c>
       <c r="H442" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15694,11 +15854,17 @@
         <v>-72713.92851765509</v>
       </c>
       <c r="H443" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15727,11 +15893,17 @@
         <v>-72999.0147176551</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15760,11 +15932,17 @@
         <v>-73667.90491765509</v>
       </c>
       <c r="H445" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15793,11 +15971,17 @@
         <v>-74176.90491765509</v>
       </c>
       <c r="H446" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15829,8 +16013,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15862,8 +16052,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15895,8 +16091,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15928,8 +16130,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15961,8 +16169,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15994,8 +16208,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16027,8 +16247,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16057,11 +16283,19 @@
         <v>-72860.02711765509</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>2574</v>
+      </c>
+      <c r="J454" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16090,11 +16324,19 @@
         <v>-75588.0662086877</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>2574</v>
+      </c>
+      <c r="J455" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16123,11 +16365,19 @@
         <v>-75498.50570868769</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>2559</v>
+      </c>
+      <c r="J456" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16156,11 +16406,19 @@
         <v>-75532.24580868769</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>2573</v>
+      </c>
+      <c r="J457" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16189,11 +16447,19 @@
         <v>-75532.24580868769</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>2570</v>
+      </c>
+      <c r="J458" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16222,11 +16488,19 @@
         <v>-75615.83860868769</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>2570</v>
+      </c>
+      <c r="J459" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16255,11 +16529,19 @@
         <v>-75707.74110868768</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>2563</v>
+      </c>
+      <c r="J460" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16288,11 +16570,19 @@
         <v>-75832.85170868768</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>2562</v>
+      </c>
+      <c r="J461" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16321,11 +16611,19 @@
         <v>-75832.85170868768</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>2561</v>
+      </c>
+      <c r="J462" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16354,11 +16652,19 @@
         <v>-75807.36220868769</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>2561</v>
+      </c>
+      <c r="J463" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16387,11 +16693,19 @@
         <v>-77633.62810868768</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>2566</v>
+      </c>
+      <c r="J464" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16420,11 +16734,19 @@
         <v>-79380.05750868768</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>2565</v>
+      </c>
+      <c r="J465" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16453,11 +16775,19 @@
         <v>-78658.54090868768</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>2563</v>
+      </c>
+      <c r="J466" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16486,11 +16816,19 @@
         <v>-78736.44090868767</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>2565</v>
+      </c>
+      <c r="J467" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16519,11 +16857,19 @@
         <v>-78663.56190868767</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>2554</v>
+      </c>
+      <c r="J468" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16552,11 +16898,19 @@
         <v>-78603.50080868766</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>2558</v>
+      </c>
+      <c r="J469" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16585,11 +16939,19 @@
         <v>-78621.43170868767</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>2560</v>
+      </c>
+      <c r="J470" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16618,11 +16980,19 @@
         <v>-78621.43170868767</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>2555</v>
+      </c>
+      <c r="J471" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16651,11 +17021,19 @@
         <v>-77587.47350868768</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>2555</v>
+      </c>
+      <c r="J472" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16684,11 +17062,19 @@
         <v>-77633.70270868768</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>2556</v>
+      </c>
+      <c r="J473" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16717,11 +17103,19 @@
         <v>-77959.08350868768</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>2555</v>
+      </c>
+      <c r="J474" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16750,11 +17144,19 @@
         <v>-77959.08350868768</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>2551</v>
+      </c>
+      <c r="J475" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16783,11 +17185,19 @@
         <v>-78117.84750868767</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>2551</v>
+      </c>
+      <c r="J476" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16816,11 +17226,19 @@
         <v>-79036.59370868767</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>2548</v>
+      </c>
+      <c r="J477" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16849,11 +17267,19 @@
         <v>-78916.41410868766</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>2541</v>
+      </c>
+      <c r="J478" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16882,11 +17308,19 @@
         <v>-78916.41410868766</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>2542</v>
+      </c>
+      <c r="J479" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16915,11 +17349,19 @@
         <v>-78778.93150868766</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>2542</v>
+      </c>
+      <c r="J480" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16948,11 +17390,19 @@
         <v>-79679.02880868765</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>2544</v>
+      </c>
+      <c r="J481" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16981,11 +17431,19 @@
         <v>-79558.84920868765</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>2543</v>
+      </c>
+      <c r="J482" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17014,11 +17472,19 @@
         <v>-79438.66960868765</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>2551</v>
+      </c>
+      <c r="J483" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17047,11 +17513,19 @@
         <v>-79438.66960868765</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>2552</v>
+      </c>
+      <c r="J484" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17080,11 +17554,19 @@
         <v>-79795.65703995238</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>2552</v>
+      </c>
+      <c r="J485" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17113,11 +17595,19 @@
         <v>-79795.65703995238</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>2546</v>
+      </c>
+      <c r="J486" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17146,11 +17636,19 @@
         <v>-79785.93143995237</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>2546</v>
+      </c>
+      <c r="J487" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17179,11 +17677,19 @@
         <v>-79785.93143995237</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>2550</v>
+      </c>
+      <c r="J488" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17212,11 +17718,19 @@
         <v>-79665.75183995237</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>2550</v>
+      </c>
+      <c r="J489" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17248,8 +17762,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17281,8 +17801,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17314,8 +17840,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17347,8 +17879,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17380,8 +17918,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17413,8 +17957,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17446,8 +17996,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17479,8 +18035,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17512,8 +18074,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17545,8 +18113,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17578,8 +18152,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17611,8 +18191,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17644,8 +18230,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17677,8 +18269,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17710,8 +18308,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17743,8 +18347,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17776,8 +18386,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17809,8 +18425,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17842,8 +18464,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17875,8 +18503,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17908,8 +18542,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17941,8 +18581,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17974,8 +18620,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18007,8 +18659,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18040,8 +18698,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18073,8 +18737,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18106,8 +18776,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18139,8 +18815,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18172,8 +18854,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18205,8 +18893,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18238,14 +18932,20 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
       <c r="M520" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest LINK.xlsx
+++ b/BackTest/2020-01-12 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3520,14 +3520,10 @@
         <v>8158.398302692142</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>2493</v>
-      </c>
-      <c r="J95" t="n">
-        <v>2493</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
@@ -3560,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>2493</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3596,19 +3586,11 @@
         <v>8667.680902692142</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>2498</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2493</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3637,14 +3619,10 @@
         <v>8467.680902692142</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>2500</v>
-      </c>
-      <c r="J98" t="n">
-        <v>2500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
@@ -3674,19 +3652,11 @@
         <v>8619.065102692142</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>2496</v>
-      </c>
-      <c r="J99" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3715,19 +3685,11 @@
         <v>8529.165102692143</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>2501</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3756,19 +3718,11 @@
         <v>6764.803302692143</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>2495</v>
-      </c>
-      <c r="J101" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3797,19 +3751,11 @@
         <v>7864.803302692143</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>2491</v>
-      </c>
-      <c r="J102" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3838,19 +3784,11 @@
         <v>7864.803302692143</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>2494</v>
-      </c>
-      <c r="J103" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3879,19 +3817,11 @@
         <v>8041.173602692143</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>2494</v>
-      </c>
-      <c r="J104" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3920,19 +3850,11 @@
         <v>8041.173602692143</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>2504</v>
-      </c>
-      <c r="J105" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3961,19 +3883,11 @@
         <v>8041.173602692143</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>2504</v>
-      </c>
-      <c r="J106" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4002,19 +3916,11 @@
         <v>8686.035102692142</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>2504</v>
-      </c>
-      <c r="J107" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4043,19 +3949,11 @@
         <v>8351.050302692141</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>2505</v>
-      </c>
-      <c r="J108" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4084,19 +3982,11 @@
         <v>8351.050302692141</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>2500</v>
-      </c>
-      <c r="J109" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4125,19 +4015,11 @@
         <v>8351.050302692141</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>2500</v>
-      </c>
-      <c r="J110" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4166,19 +4048,11 @@
         <v>8453.771002692141</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>2500</v>
-      </c>
-      <c r="J111" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4207,19 +4081,11 @@
         <v>8453.771002692141</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>2501</v>
-      </c>
-      <c r="J112" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4248,19 +4114,11 @@
         <v>8453.771002692141</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>2501</v>
-      </c>
-      <c r="J113" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4289,19 +4147,11 @@
         <v>8453.771002692141</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>2501</v>
-      </c>
-      <c r="J114" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4330,19 +4180,11 @@
         <v>8453.771002692141</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>2501</v>
-      </c>
-      <c r="J115" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4371,19 +4213,11 @@
         <v>8458.771002692141</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>2501</v>
-      </c>
-      <c r="J116" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4412,19 +4246,11 @@
         <v>9455.498402692141</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>2502</v>
-      </c>
-      <c r="J117" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4453,19 +4279,11 @@
         <v>15455.49840269214</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>2503</v>
-      </c>
-      <c r="J118" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4494,19 +4312,11 @@
         <v>15231.11590269214</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>2526</v>
-      </c>
-      <c r="J119" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4535,19 +4345,11 @@
         <v>13404.14100269214</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>2525</v>
-      </c>
-      <c r="J120" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4576,19 +4378,11 @@
         <v>14189.14980269214</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>2517</v>
-      </c>
-      <c r="J121" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4617,19 +4411,11 @@
         <v>14189.14980269214</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>2524</v>
-      </c>
-      <c r="J122" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4658,19 +4444,11 @@
         <v>13679.13030269214</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>2524</v>
-      </c>
-      <c r="J123" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4699,19 +4477,11 @@
         <v>13861.99160269214</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>2511</v>
-      </c>
-      <c r="J124" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4740,19 +4510,11 @@
         <v>14374.30150269214</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>2513</v>
-      </c>
-      <c r="J125" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4781,19 +4543,11 @@
         <v>14212.59850269214</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>2514</v>
-      </c>
-      <c r="J126" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4822,19 +4576,11 @@
         <v>12952.71920269214</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>2507</v>
-      </c>
-      <c r="J127" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4863,19 +4609,11 @@
         <v>6925.054688042461</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>2504</v>
-      </c>
-      <c r="J128" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4904,19 +4642,11 @@
         <v>5094.988788042461</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>2503</v>
-      </c>
-      <c r="J129" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4945,19 +4675,11 @@
         <v>5094.988788042461</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>2500</v>
-      </c>
-      <c r="J130" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4986,19 +4708,11 @@
         <v>4854.629588042461</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>2500</v>
-      </c>
-      <c r="J131" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5027,19 +4741,11 @@
         <v>3597.412588042461</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>2498</v>
-      </c>
-      <c r="J132" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5068,19 +4774,11 @@
         <v>5064.756088042461</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>2492</v>
-      </c>
-      <c r="J133" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5109,19 +4807,11 @@
         <v>5064.756088042461</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>2500</v>
-      </c>
-      <c r="J134" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5150,19 +4840,11 @@
         <v>5264.756088042461</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>2500</v>
-      </c>
-      <c r="J135" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5191,19 +4873,11 @@
         <v>5431.424288042461</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>2502</v>
-      </c>
-      <c r="J136" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5232,19 +4906,11 @@
         <v>7061.420288042461</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>2519</v>
-      </c>
-      <c r="J137" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5273,19 +4939,11 @@
         <v>5436.420288042461</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>2524</v>
-      </c>
-      <c r="J138" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5314,19 +4972,11 @@
         <v>5811.604288042461</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>2519</v>
-      </c>
-      <c r="J139" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5355,19 +5005,11 @@
         <v>5316.555388042461</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>2527</v>
-      </c>
-      <c r="J140" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5399,14 +5041,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5438,14 +5074,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5477,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5516,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5555,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5594,14 +5206,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5633,14 +5239,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5672,14 +5272,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5711,14 +5305,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5750,14 +5338,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5789,14 +5371,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5828,14 +5404,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5867,14 +5437,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5906,14 +5470,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5945,14 +5503,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5984,14 +5536,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6023,14 +5569,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6062,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6101,14 +5635,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6140,14 +5668,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6179,14 +5701,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6218,14 +5734,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6257,14 +5767,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6296,14 +5800,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6335,14 +5833,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6374,14 +5866,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6410,17 +5896,11 @@
         <v>11577.82272643837</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6449,17 +5929,11 @@
         <v>11577.82272643837</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6488,17 +5962,11 @@
         <v>16966.66272643838</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6527,17 +5995,11 @@
         <v>22798.75242643838</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6566,17 +6028,11 @@
         <v>29691.30232643837</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6605,17 +6061,11 @@
         <v>29513.64732643837</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6644,17 +6094,11 @@
         <v>28518.22702643837</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6683,17 +6127,11 @@
         <v>33198.23502643837</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6725,14 +6163,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6764,14 +6196,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6803,14 +6229,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6842,14 +6262,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6881,14 +6295,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6920,14 +6328,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6959,14 +6361,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6998,14 +6394,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7034,19 +6424,13 @@
         <v>31507.87962643837</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>2500</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
-        <v>1.0402</v>
+        <v>1</v>
       </c>
       <c r="M183" t="inlineStr"/>
     </row>
@@ -7073,7 +6457,7 @@
         <v>31507.87962643837</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7106,7 +6490,7 @@
         <v>29254.25442643837</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7139,7 +6523,7 @@
         <v>29254.25442643837</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7172,7 +6556,7 @@
         <v>29254.25442643837</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7205,7 +6589,7 @@
         <v>24676.61032643837</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7238,7 +6622,7 @@
         <v>24083.71402643837</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7271,7 +6655,7 @@
         <v>24452.63442643837</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7304,7 +6688,7 @@
         <v>24113.89392643837</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7337,7 +6721,7 @@
         <v>22164.35572643837</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7370,7 +6754,7 @@
         <v>19702.24892643837</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7403,7 +6787,7 @@
         <v>20234.51882643837</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7436,7 +6820,7 @@
         <v>19150.57162643837</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7469,7 +6853,7 @@
         <v>19270.75122643837</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7502,7 +6886,7 @@
         <v>19324.96092643837</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -8261,7 +7645,7 @@
         <v>16826.83692643836</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8294,7 +7678,7 @@
         <v>17375.69032643836</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8327,7 +7711,7 @@
         <v>15170.38532643836</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8360,7 +7744,7 @@
         <v>15170.38532643836</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8426,7 +7810,7 @@
         <v>11534.38622643836</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8459,7 +7843,7 @@
         <v>9947.796526438362</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8492,7 +7876,7 @@
         <v>10339.56452643836</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8525,7 +7909,7 @@
         <v>9047.531026438362</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8558,7 +7942,7 @@
         <v>9047.531026438362</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8591,7 +7975,7 @@
         <v>9296.329526438363</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8624,7 +8008,7 @@
         <v>9296.329526438363</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8657,7 +8041,7 @@
         <v>8904.968226438363</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8690,7 +8074,7 @@
         <v>8904.968226438363</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8723,7 +8107,7 @@
         <v>8905.304826438363</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8756,7 +8140,7 @@
         <v>8544.766026438363</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8789,7 +8173,7 @@
         <v>8566.766026438363</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8822,7 +8206,7 @@
         <v>7320.681426438363</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8855,7 +8239,7 @@
         <v>7320.681426438363</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8888,7 +8272,7 @@
         <v>9856.585826438362</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8921,7 +8305,7 @@
         <v>9750.464426438362</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8954,7 +8338,7 @@
         <v>9844.846226438362</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8987,7 +8371,7 @@
         <v>9782.705426438362</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9020,7 +8404,7 @@
         <v>11118.33392643836</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9416,7 +8800,7 @@
         <v>15745.71166509221</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9449,7 +8833,7 @@
         <v>15745.71166509221</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9482,7 +8866,7 @@
         <v>15198.14296509221</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9515,7 +8899,7 @@
         <v>15198.14296509221</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9548,7 +8932,7 @@
         <v>15198.14296509221</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9581,7 +8965,7 @@
         <v>15395.17540709993</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9614,7 +8998,7 @@
         <v>15373.17540709993</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9647,7 +9031,7 @@
         <v>15372.17540709993</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9680,7 +9064,7 @@
         <v>15371.17540709993</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9713,7 +9097,7 @@
         <v>15031.36940709993</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9746,7 +9130,7 @@
         <v>16747.92930709993</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9779,7 +9163,7 @@
         <v>16741.26320709993</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9812,7 +9196,7 @@
         <v>16718.55000709993</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9845,7 +9229,7 @@
         <v>16718.55000709993</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9878,7 +9262,7 @@
         <v>16718.55000709993</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9911,7 +9295,7 @@
         <v>16718.55000709993</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9944,7 +9328,7 @@
         <v>16549.67020709993</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9977,7 +9361,7 @@
         <v>16549.67020709993</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10010,7 +9394,7 @@
         <v>17698.73800709994</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10043,7 +9427,7 @@
         <v>17637.83230709994</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10076,7 +9460,7 @@
         <v>17528.13880709993</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10109,7 +9493,7 @@
         <v>17157.08670709993</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10670,7 +10054,7 @@
         <v>17507.94077635761</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10703,7 +10087,7 @@
         <v>17388.40927635761</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10736,7 +10120,7 @@
         <v>16927.53907635761</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10769,7 +10153,7 @@
         <v>17384.22747635761</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10802,7 +10186,7 @@
         <v>17352.82667635761</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10835,7 +10219,7 @@
         <v>16566.97657635761</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10868,7 +10252,7 @@
         <v>16162.36977635761</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -14267,14 +13651,10 @@
         <v>-77038.1652490018</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>2533</v>
-      </c>
-      <c r="J402" t="n">
-        <v>2533</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
@@ -14307,14 +13687,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>2533</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14346,14 +13720,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>2533</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14514,14 +13882,10 @@
         <v>-76037.6533490018</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
-      </c>
-      <c r="I409" t="n">
-        <v>2533</v>
-      </c>
-      <c r="J409" t="n">
-        <v>2533</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
@@ -14551,19 +13915,11 @@
         <v>-75911.6533490018</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
-      </c>
-      <c r="I410" t="n">
-        <v>2537</v>
-      </c>
-      <c r="J410" t="n">
-        <v>2533</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14592,19 +13948,11 @@
         <v>-75911.6533490018</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
-      </c>
-      <c r="I411" t="n">
-        <v>2538</v>
-      </c>
-      <c r="J411" t="n">
-        <v>2533</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14633,14 +13981,10 @@
         <v>-75911.6533490018</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
-      </c>
-      <c r="I412" t="n">
-        <v>2538</v>
-      </c>
-      <c r="J412" t="n">
-        <v>2538</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
@@ -14678,11 +14022,7 @@
       <c r="J413" t="n">
         <v>2538</v>
       </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14758,9 +14098,13 @@
         <v>2537</v>
       </c>
       <c r="J415" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K415" t="inlineStr"/>
+        <v>2538</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14797,11 +14141,7 @@
       <c r="J416" t="n">
         <v>2537</v>
       </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14881,7 +14221,7 @@
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L418" t="n">
@@ -14918,13 +14258,9 @@
         <v>2540</v>
       </c>
       <c r="J419" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2540</v>
+      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14959,11 +14295,11 @@
         <v>2539</v>
       </c>
       <c r="J420" t="n">
-        <v>2537</v>
+        <v>2540</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L420" t="n">
@@ -15000,11 +14336,11 @@
         <v>2539</v>
       </c>
       <c r="J421" t="n">
-        <v>2537</v>
+        <v>2540</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L421" t="n">
@@ -15035,17 +14371,15 @@
         <v>-76008.64184900181</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>2542</v>
+      </c>
       <c r="J422" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2542</v>
+      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15078,11 +14412,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
-        <v>2537</v>
+        <v>2542</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L423" t="n">
@@ -15117,11 +14451,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
-        <v>2537</v>
+        <v>2542</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L424" t="n">
@@ -15155,14 +14489,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15194,14 +14522,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15233,14 +14555,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15272,14 +14588,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15311,14 +14621,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15350,14 +14654,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15389,14 +14687,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15428,14 +14720,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15467,14 +14753,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15506,14 +14786,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15545,14 +14819,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15584,14 +14852,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15623,14 +14885,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15662,14 +14918,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15701,14 +14951,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15740,14 +14984,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15779,14 +15017,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15818,14 +15050,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15857,14 +15083,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15896,14 +15116,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15935,14 +15149,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15974,14 +15182,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16013,14 +15215,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16052,14 +15248,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16091,14 +15281,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16130,14 +15314,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16169,14 +15347,8 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16208,14 +15380,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16247,14 +15413,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16283,19 +15443,11 @@
         <v>-72860.02711765509</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
-      </c>
-      <c r="I454" t="n">
-        <v>2574</v>
-      </c>
-      <c r="J454" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16324,19 +15476,11 @@
         <v>-75588.0662086877</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
-      </c>
-      <c r="I455" t="n">
-        <v>2574</v>
-      </c>
-      <c r="J455" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16365,19 +15509,11 @@
         <v>-75498.50570868769</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
-      </c>
-      <c r="I456" t="n">
-        <v>2559</v>
-      </c>
-      <c r="J456" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16406,19 +15542,11 @@
         <v>-75532.24580868769</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
-      </c>
-      <c r="I457" t="n">
-        <v>2573</v>
-      </c>
-      <c r="J457" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16447,19 +15575,11 @@
         <v>-75532.24580868769</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
-      </c>
-      <c r="I458" t="n">
-        <v>2570</v>
-      </c>
-      <c r="J458" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16488,19 +15608,11 @@
         <v>-75615.83860868769</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
-      </c>
-      <c r="I459" t="n">
-        <v>2570</v>
-      </c>
-      <c r="J459" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16529,19 +15641,11 @@
         <v>-75707.74110868768</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
-      </c>
-      <c r="I460" t="n">
-        <v>2563</v>
-      </c>
-      <c r="J460" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16570,19 +15674,11 @@
         <v>-75832.85170868768</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
-      </c>
-      <c r="I461" t="n">
-        <v>2562</v>
-      </c>
-      <c r="J461" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16611,19 +15707,11 @@
         <v>-75832.85170868768</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
-      </c>
-      <c r="I462" t="n">
-        <v>2561</v>
-      </c>
-      <c r="J462" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16652,19 +15740,11 @@
         <v>-75807.36220868769</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
-      </c>
-      <c r="I463" t="n">
-        <v>2561</v>
-      </c>
-      <c r="J463" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16693,19 +15773,11 @@
         <v>-77633.62810868768</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
-      </c>
-      <c r="I464" t="n">
-        <v>2566</v>
-      </c>
-      <c r="J464" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16734,19 +15806,11 @@
         <v>-79380.05750868768</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
-      </c>
-      <c r="I465" t="n">
-        <v>2565</v>
-      </c>
-      <c r="J465" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16775,19 +15839,11 @@
         <v>-78658.54090868768</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
-      </c>
-      <c r="I466" t="n">
-        <v>2563</v>
-      </c>
-      <c r="J466" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16816,19 +15872,11 @@
         <v>-78736.44090868767</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
-      </c>
-      <c r="I467" t="n">
-        <v>2565</v>
-      </c>
-      <c r="J467" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16857,19 +15905,11 @@
         <v>-78663.56190868767</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
-      </c>
-      <c r="I468" t="n">
-        <v>2554</v>
-      </c>
-      <c r="J468" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16898,19 +15938,11 @@
         <v>-78603.50080868766</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
-      </c>
-      <c r="I469" t="n">
-        <v>2558</v>
-      </c>
-      <c r="J469" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16939,19 +15971,11 @@
         <v>-78621.43170868767</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
-      </c>
-      <c r="I470" t="n">
-        <v>2560</v>
-      </c>
-      <c r="J470" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16980,19 +16004,11 @@
         <v>-78621.43170868767</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
-      </c>
-      <c r="I471" t="n">
-        <v>2555</v>
-      </c>
-      <c r="J471" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17021,19 +16037,11 @@
         <v>-77587.47350868768</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
-      </c>
-      <c r="I472" t="n">
-        <v>2555</v>
-      </c>
-      <c r="J472" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17062,19 +16070,11 @@
         <v>-77633.70270868768</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
-      </c>
-      <c r="I473" t="n">
-        <v>2556</v>
-      </c>
-      <c r="J473" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17103,19 +16103,11 @@
         <v>-77959.08350868768</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
-      </c>
-      <c r="I474" t="n">
-        <v>2555</v>
-      </c>
-      <c r="J474" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17144,19 +16136,11 @@
         <v>-77959.08350868768</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
-      </c>
-      <c r="I475" t="n">
-        <v>2551</v>
-      </c>
-      <c r="J475" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17185,19 +16169,11 @@
         <v>-78117.84750868767</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
-      </c>
-      <c r="I476" t="n">
-        <v>2551</v>
-      </c>
-      <c r="J476" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17226,19 +16202,11 @@
         <v>-79036.59370868767</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
-      </c>
-      <c r="I477" t="n">
-        <v>2548</v>
-      </c>
-      <c r="J477" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17267,19 +16235,11 @@
         <v>-78916.41410868766</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
-      </c>
-      <c r="I478" t="n">
-        <v>2541</v>
-      </c>
-      <c r="J478" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17308,19 +16268,11 @@
         <v>-78916.41410868766</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
-      </c>
-      <c r="I479" t="n">
-        <v>2542</v>
-      </c>
-      <c r="J479" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17349,19 +16301,11 @@
         <v>-78778.93150868766</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
-      </c>
-      <c r="I480" t="n">
-        <v>2542</v>
-      </c>
-      <c r="J480" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17390,19 +16334,11 @@
         <v>-79679.02880868765</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
-      </c>
-      <c r="I481" t="n">
-        <v>2544</v>
-      </c>
-      <c r="J481" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17431,19 +16367,11 @@
         <v>-79558.84920868765</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
-      </c>
-      <c r="I482" t="n">
-        <v>2543</v>
-      </c>
-      <c r="J482" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I482" t="inlineStr"/>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17472,19 +16400,11 @@
         <v>-79438.66960868765</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
-      </c>
-      <c r="I483" t="n">
-        <v>2551</v>
-      </c>
-      <c r="J483" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I483" t="inlineStr"/>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17519,13 +16439,9 @@
         <v>2552</v>
       </c>
       <c r="J484" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2552</v>
+      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17554,17 +16470,15 @@
         <v>-79795.65703995238</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
-      </c>
-      <c r="I485" t="n">
+        <v>0</v>
+      </c>
+      <c r="I485" t="inlineStr"/>
+      <c r="J485" t="n">
         <v>2552</v>
-      </c>
-      <c r="J485" t="n">
-        <v>2537</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L485" t="n">
@@ -17595,17 +16509,15 @@
         <v>-79795.65703995238</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
-      </c>
-      <c r="I486" t="n">
-        <v>2546</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I486" t="inlineStr"/>
       <c r="J486" t="n">
-        <v>2537</v>
+        <v>2552</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L486" t="n">
@@ -17636,19 +16548,11 @@
         <v>-79785.93143995237</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
-      </c>
-      <c r="I487" t="n">
-        <v>2546</v>
-      </c>
-      <c r="J487" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I487" t="inlineStr"/>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17683,13 +16587,9 @@
         <v>2550</v>
       </c>
       <c r="J488" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2550</v>
+      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17718,17 +16618,15 @@
         <v>-79665.75183995237</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
-      </c>
-      <c r="I489" t="n">
+        <v>0</v>
+      </c>
+      <c r="I489" t="inlineStr"/>
+      <c r="J489" t="n">
         <v>2550</v>
-      </c>
-      <c r="J489" t="n">
-        <v>2537</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L489" t="n">
@@ -17759,15 +16657,17 @@
         <v>-79665.75183995237</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>2553</v>
+      </c>
       <c r="J490" t="n">
-        <v>2537</v>
+        <v>2550</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L490" t="n">
@@ -17801,14 +16701,8 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17840,14 +16734,8 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17879,14 +16767,8 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17918,14 +16800,8 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17957,14 +16833,8 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17996,14 +16866,8 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18035,14 +16899,8 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18074,14 +16932,8 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18113,14 +16965,8 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18152,14 +16998,8 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18191,14 +17031,8 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18230,14 +17064,8 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18269,14 +17097,8 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18308,14 +17130,8 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18347,14 +17163,8 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18386,14 +17196,8 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18422,17 +17226,15 @@
         <v>-79056.51743995237</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
-      </c>
-      <c r="I507" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I507" t="n">
+        <v>2559</v>
+      </c>
       <c r="J507" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2559</v>
+      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18465,11 +17267,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="n">
-        <v>2537</v>
+        <v>2559</v>
       </c>
       <c r="K508" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L508" t="n">
@@ -18504,11 +17306,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="n">
-        <v>2537</v>
+        <v>2559</v>
       </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L509" t="n">
@@ -18542,14 +17344,8 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18581,14 +17377,8 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18620,14 +17410,8 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18659,14 +17443,8 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18698,14 +17476,8 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18737,14 +17509,8 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18776,14 +17542,8 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18815,14 +17575,8 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18854,14 +17608,8 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18893,14 +17641,8 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18932,20 +17674,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>2537</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
       <c r="M520" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest LINK.xlsx
+++ b/BackTest/2020-01-12 BackTest LINK.xlsx
@@ -5896,7 +5896,7 @@
         <v>11577.82272643837</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>11577.82272643837</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>16966.66272643838</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>22798.75242643838</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>29691.30232643837</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>29513.64732643837</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>28518.22702643837</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>33198.23502643837</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>29254.25442643837</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>24676.61032643837</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>24083.71402643837</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>24452.63442643837</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>24113.89392643837</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>22164.35572643837</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>19702.24892643837</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>20234.51882643837</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>19150.57162643837</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>19270.75122643837</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>19324.96092643837</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>19324.96092643837</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>17817.60632643837</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>17818.60632643837</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>16668.52252643837</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>21973.19452643836</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>26155.46782643837</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>26155.46782643837</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>23286.82262643837</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>22456.44662643837</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>22456.44662643837</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>22388.66312643836</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>22388.66312643836</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>22362.16432643836</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -13915,10 +13915,14 @@
         <v>-75911.6533490018</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>2537</v>
+      </c>
+      <c r="J410" t="n">
+        <v>2537</v>
+      </c>
       <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
@@ -13948,11 +13952,19 @@
         <v>-75911.6533490018</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>2538</v>
+      </c>
+      <c r="J411" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -13981,11 +13993,19 @@
         <v>-75911.6533490018</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>2538</v>
+      </c>
+      <c r="J412" t="n">
+        <v>2537</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14408,9 +14428,11 @@
         <v>-74938.07274900182</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>2548</v>
+      </c>
       <c r="J423" t="n">
         <v>2542</v>
       </c>
@@ -14447,9 +14469,11 @@
         <v>-73855.91664900183</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>2554</v>
+      </c>
       <c r="J424" t="n">
         <v>2542</v>
       </c>
@@ -14486,10 +14510,14 @@
         <v>-73855.91664900183</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>2559</v>
+      </c>
+      <c r="J425" t="n">
+        <v>2559</v>
+      </c>
       <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
@@ -14519,11 +14547,19 @@
         <v>-73635.22524900183</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>2559</v>
+      </c>
+      <c r="J426" t="n">
+        <v>2559</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14555,8 +14591,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>2559</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15641,10 +15683,14 @@
         <v>-75707.74110868768</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>2563</v>
+      </c>
+      <c r="J460" t="n">
+        <v>2563</v>
+      </c>
       <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
@@ -15674,11 +15720,19 @@
         <v>-75832.85170868768</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>2562</v>
+      </c>
+      <c r="J461" t="n">
+        <v>2563</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15707,11 +15761,19 @@
         <v>-75832.85170868768</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>2561</v>
+      </c>
+      <c r="J462" t="n">
+        <v>2563</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15806,11 +15868,17 @@
         <v>-79380.05750868768</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>2565</v>
+      </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15839,11 +15907,17 @@
         <v>-78658.54090868768</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>2563</v>
+      </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15876,7 +15950,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15905,11 +15983,17 @@
         <v>-78663.56190868767</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>2554</v>
+      </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15942,7 +16026,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -15975,7 +16063,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16008,7 +16100,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16037,11 +16133,17 @@
         <v>-77587.47350868768</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>2555</v>
+      </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16070,11 +16172,17 @@
         <v>-77633.70270868768</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>2556</v>
+      </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16103,11 +16211,17 @@
         <v>-77959.08350868768</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>2555</v>
+      </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16140,7 +16254,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16169,11 +16287,17 @@
         <v>-78117.84750868767</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>2551</v>
+      </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16202,11 +16326,17 @@
         <v>-79036.59370868767</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>2548</v>
+      </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16239,7 +16369,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16272,7 +16406,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16305,7 +16443,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16338,7 +16480,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16371,7 +16517,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16404,7 +16554,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16433,15 +16587,15 @@
         <v>-79438.66960868765</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
-      </c>
-      <c r="I484" t="n">
-        <v>2552</v>
-      </c>
-      <c r="J484" t="n">
-        <v>2552</v>
-      </c>
-      <c r="K484" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I484" t="inlineStr"/>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16473,12 +16627,10 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>2552</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L485" t="n">
@@ -16512,12 +16664,10 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>2552</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L486" t="n">
@@ -16552,7 +16702,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16581,15 +16735,15 @@
         <v>-79785.93143995237</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
-      </c>
-      <c r="I488" t="n">
-        <v>2550</v>
-      </c>
-      <c r="J488" t="n">
-        <v>2550</v>
-      </c>
-      <c r="K488" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I488" t="inlineStr"/>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16621,12 +16775,10 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>2550</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L489" t="n">
@@ -16657,17 +16809,13 @@
         <v>-79665.75183995237</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
-      </c>
-      <c r="I490" t="n">
-        <v>2553</v>
-      </c>
-      <c r="J490" t="n">
-        <v>2550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I490" t="inlineStr"/>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L490" t="n">
@@ -16702,7 +16850,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16735,7 +16887,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16768,7 +16924,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16801,7 +16961,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16834,7 +16998,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16867,7 +17035,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16900,7 +17072,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -16933,7 +17109,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -16966,7 +17146,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -16999,7 +17183,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17032,7 +17220,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17065,7 +17257,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17098,7 +17294,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17131,7 +17331,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17164,7 +17368,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17197,7 +17405,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17226,15 +17438,15 @@
         <v>-79056.51743995237</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
-      </c>
-      <c r="I507" t="n">
-        <v>2559</v>
-      </c>
-      <c r="J507" t="n">
-        <v>2559</v>
-      </c>
-      <c r="K507" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I507" t="inlineStr"/>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17266,12 +17478,10 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>2559</v>
-      </c>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L508" t="n">
@@ -17305,12 +17515,10 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>2559</v>
-      </c>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L509" t="n">
@@ -17345,7 +17553,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17378,7 +17590,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17411,7 +17627,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17444,7 +17664,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17477,7 +17701,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17510,7 +17738,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17543,7 +17775,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17576,7 +17812,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17609,7 +17849,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17642,7 +17886,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17675,7 +17923,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
